--- a/Input data/load.xlsx
+++ b/Input data/load.xlsx
@@ -452,134 +452,134 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>11170</v>
+        <v>7980</v>
       </c>
       <c r="C2" t="n">
-        <v>33270</v>
+        <v>36460</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>10250</v>
+        <v>4280</v>
       </c>
       <c r="C3" t="n">
-        <v>34890</v>
+        <v>40860</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>11510</v>
+        <v>3820</v>
       </c>
       <c r="C4" t="n">
-        <v>40580</v>
+        <v>48270</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>20510</v>
+        <v>30240</v>
       </c>
       <c r="C5" t="n">
-        <v>38830</v>
+        <v>29110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>18900</v>
+        <v>22380</v>
       </c>
       <c r="C6" t="n">
-        <v>43640</v>
+        <v>40160</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>24760</v>
+        <v>42550</v>
       </c>
       <c r="C7" t="n">
-        <v>38280</v>
+        <v>20490</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>23620</v>
+        <v>40210</v>
       </c>
       <c r="C8" t="n">
-        <v>37030</v>
+        <v>20440</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>14310</v>
+        <v>8520</v>
       </c>
       <c r="C9" t="n">
-        <v>45070</v>
+        <v>50860</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>21830</v>
+        <v>33800</v>
       </c>
       <c r="C10" t="n">
-        <v>39040</v>
+        <v>27070</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>16610</v>
+        <v>17510</v>
       </c>
       <c r="C11" t="n">
-        <v>41440</v>
+        <v>40550</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>10930</v>
+        <v>1680</v>
       </c>
       <c r="C12" t="n">
-        <v>41330</v>
+        <v>50590</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>12880</v>
+        <v>11750</v>
       </c>
       <c r="C13" t="n">
-        <v>34750</v>
+        <v>35880</v>
       </c>
     </row>
   </sheetData>

--- a/Input data/load.xlsx
+++ b/Input data/load.xlsx
@@ -455,10 +455,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>7980</v>
+        <v>5700</v>
       </c>
       <c r="C2" t="n">
-        <v>36460</v>
+        <v>38740</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>4280</v>
+        <v>3060</v>
       </c>
       <c r="C3" t="n">
-        <v>40860</v>
+        <v>42080</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3820</v>
+        <v>2730</v>
       </c>
       <c r="C4" t="n">
-        <v>48270</v>
+        <v>49370</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>30240</v>
+        <v>21600</v>
       </c>
       <c r="C5" t="n">
-        <v>29110</v>
+        <v>37740</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>22380</v>
+        <v>15990</v>
       </c>
       <c r="C6" t="n">
-        <v>40160</v>
+        <v>46560</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>42550</v>
+        <v>30390</v>
       </c>
       <c r="C7" t="n">
-        <v>20490</v>
+        <v>32650</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>40210</v>
+        <v>28720</v>
       </c>
       <c r="C8" t="n">
-        <v>20440</v>
+        <v>31930</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>8520</v>
+        <v>6080</v>
       </c>
       <c r="C9" t="n">
-        <v>50860</v>
+        <v>53300</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>33800</v>
+        <v>24150</v>
       </c>
       <c r="C10" t="n">
-        <v>27070</v>
+        <v>36720</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>17510</v>
+        <v>12510</v>
       </c>
       <c r="C11" t="n">
-        <v>40550</v>
+        <v>45550</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1680</v>
+        <v>1200</v>
       </c>
       <c r="C12" t="n">
-        <v>50590</v>
+        <v>51070</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>11750</v>
+        <v>8390</v>
       </c>
       <c r="C13" t="n">
-        <v>35880</v>
+        <v>39230</v>
       </c>
     </row>
   </sheetData>

--- a/Input data/load.xlsx
+++ b/Input data/load.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,10 +477,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2730</v>
+        <v>2840</v>
       </c>
       <c r="C4" t="n">
-        <v>49370</v>
+        <v>51310</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>21600</v>
+        <v>22260</v>
       </c>
       <c r="C5" t="n">
-        <v>37740</v>
+        <v>38900</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>15990</v>
+        <v>16130</v>
       </c>
       <c r="C6" t="n">
-        <v>46560</v>
+        <v>46970</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>30390</v>
+        <v>29240</v>
       </c>
       <c r="C7" t="n">
-        <v>32650</v>
+        <v>31410</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>28720</v>
+        <v>28340</v>
       </c>
       <c r="C8" t="n">
-        <v>31930</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>6080</v>
+        <v>6170</v>
       </c>
       <c r="C9" t="n">
-        <v>53300</v>
+        <v>54070</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>24150</v>
+        <v>21310</v>
       </c>
       <c r="C10" t="n">
-        <v>36720</v>
+        <v>32410</v>
       </c>
     </row>
     <row r="11">
@@ -554,32 +554,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>12510</v>
+        <v>10260</v>
       </c>
       <c r="C11" t="n">
-        <v>45550</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1200</v>
-      </c>
-      <c r="C12" t="n">
-        <v>51070</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" t="n">
-        <v>8390</v>
-      </c>
-      <c r="C13" t="n">
-        <v>39230</v>
+        <v>37370</v>
       </c>
     </row>
   </sheetData>
